--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/67/word_level_predictions_67.xlsx
@@ -1149,393 +1149,393 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,213 +2629,213 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -18130,262 +18130,262 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>30</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Takeoff</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>3</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E343" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L341" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
-        <is>
-          <t>Takeoff</t>
-        </is>
-      </c>
-      <c r="D342" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E345" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>30</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D343" t="n">
-        <v>4</v>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>30</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>5</v>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>30</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="D345" t="n">
-        <v>6</v>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="F393" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G393" s="2" t="b">
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20881,7 +20881,7 @@
       </c>
       <c r="L393" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="F394" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G394" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20933,7 +20933,7 @@
       </c>
       <c r="L394" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/67/word_level_predictions_67.xlsx
@@ -1149,393 +1149,393 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2605,237 +2605,237 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Settings</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>firmware</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Settings</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>update</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>firmware</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Recorder</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Recorder</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -18130,262 +18130,262 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
+      <c r="F342" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="F393" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G393" s="2" t="b">
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20881,7 +20881,7 @@
       </c>
       <c r="L393" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="F394" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G394" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20933,7 +20933,7 @@
       </c>
       <c r="L394" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
